--- a/biology/Zoologie/Amplypterus_panopus/Amplypterus_panopus.xlsx
+++ b/biology/Zoologie/Amplypterus_panopus/Amplypterus_panopus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amplypterus panopus est une espèce d'insectes lépidoptères de la famille des Sphingidae, de la  sous-famille des Smerinthinae, de la tribu des Ambulycini, et du genre Amplypterus. C'est l'espèce type pour le genre.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Répartition
 Il se trouve au Sri Lanka, au Sud et au Nord de l'Inde (y compris les îles Andaman et Nicobar ), au Népal, en  Birmanie, dans le Sud de la Chine, en Thaïlande, au Vietnam, en Indonésie (Sulawesi) et aux Philippines.</t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure est de 130-168 mm.
 			Avers du mâle(coll.MHNT)
@@ -577,7 +593,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les adultes volent en mars, avril, juin, août et décembre à Hong Kong.
 Les chenilles se nourrissent sur Dracontomelum, Mangifera indica, Rhus, Durio, Calophyllum et Garcinia.</t>
@@ -608,16 +626,87 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Amplypterus panopus a été décrite par l'entomologiste Pieter Cramer en 1779, sous le nom initial de Sphinx panopus.
-Synonymie
-Sphinx panopus Cramer, [1779] Protonyme
-Calymnia panopus (Cramer, [1779])
-Composogene panopus (Cramer, [1779])
-Calymnia pavonica Moore, 1877
-Taxinomie
-Liste des sous-espèces
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Amplypterus panopus a été décrite par l'entomologiste Pieter Cramer en 1779, sous le nom initial de Sphinx panopus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amplypterus_panopus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amplypterus_panopus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sphinx panopus Cramer,  Protonyme
+Calymnia panopus (Cramer, )
+Composogene panopus (Cramer, )
+Calymnia pavonica Moore, 1877</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Amplypterus_panopus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amplypterus_panopus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces
 Amplypterus panopus panopus
 Amplypterus panopus hainanensis Eitschberger, 2006 (Hainan)</t>
         </is>
